--- a/data/trans_dic/BARTHEL_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3418218524748393</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4720534156869958</v>
+        <v>0.4720534156869957</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1891168104907085</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1166696920771944</v>
+        <v>0.1175149960268022</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1740441818246851</v>
+        <v>0.1754400706382415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1772938602488213</v>
+        <v>0.1764421746033749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2587195972338556</v>
+        <v>0.2523446754665095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1841201552349667</v>
+        <v>0.1828866802048946</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2933416644875265</v>
+        <v>0.2958800549876945</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2936564839889018</v>
+        <v>0.3007890682838165</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4394879759549212</v>
+        <v>0.4402773588800449</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1652125852964269</v>
+        <v>0.1658321255912395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2582152620654021</v>
+        <v>0.2581437618740521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2595808313379288</v>
+        <v>0.2629466651657448</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3864741907485217</v>
+        <v>0.3860409712290039</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1892664365063881</v>
+        <v>0.1894903886587961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2631488413344631</v>
+        <v>0.2616374583790542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2578218307085642</v>
+        <v>0.2568811036176898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3415426335293955</v>
+        <v>0.3427015339389477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2511026574739111</v>
+        <v>0.2514206903494337</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3694530706793992</v>
+        <v>0.3692305110929555</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3815457129130702</v>
+        <v>0.3910120292579228</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5005492438219369</v>
+        <v>0.5018954331516816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2184925431672926</v>
+        <v>0.215663563974578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3172449025454435</v>
+        <v>0.3155465279298104</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3241944757345066</v>
+        <v>0.3257462637480852</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4386239714090563</v>
+        <v>0.4398734413361287</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.09492464844726377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1608930951470183</v>
+        <v>0.1608930951470184</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1268684932812285</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03953291933302206</v>
+        <v>0.03878083540227882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06586922411117885</v>
+        <v>0.05962910917335666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05844826731262571</v>
+        <v>0.06114747814143817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1302757716039697</v>
+        <v>0.1262271062877491</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05503705717873465</v>
+        <v>0.05323524713605737</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1198220345390286</v>
+        <v>0.121657033764074</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1723687534064187</v>
+        <v>0.1721586853814694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2023915327619911</v>
+        <v>0.2027752485751963</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05761385930452739</v>
+        <v>0.05720133987560849</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09863647489050364</v>
+        <v>0.1003009594570714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1307551364980226</v>
+        <v>0.1272122352725367</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1724403298670005</v>
+        <v>0.1729516091809891</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1579589470908931</v>
+        <v>0.146258163017891</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1890960185086075</v>
+        <v>0.1802398016857411</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1415219400780771</v>
+        <v>0.1450810027692069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1997980925295069</v>
+        <v>0.1946609906399106</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.236342315335171</v>
+        <v>0.2393387132313604</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3022224861468887</v>
+        <v>0.3057706894494384</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3132901242793664</v>
+        <v>0.3182604422066221</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2807946786941646</v>
+        <v>0.2772889354779614</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1558225353321808</v>
+        <v>0.1553023607523247</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2048226426743486</v>
+        <v>0.2057327657686997</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2081711844711816</v>
+        <v>0.2103602693618724</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2261802525975393</v>
+        <v>0.2228857132318944</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02348782756097387</v>
+        <v>0.02298713342214764</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04409583631560026</v>
+        <v>0.05571188055890446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08209743882230468</v>
+        <v>0.07977142506375999</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04436994360014004</v>
+        <v>0.04643649199128803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04943532425763567</v>
+        <v>0.05142913586140756</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06099351051055835</v>
+        <v>0.06936595159997314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1197418339451382</v>
+        <v>0.1224450358758636</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05602875989108416</v>
+        <v>0.05171770048707171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04804887276218665</v>
+        <v>0.05923139191093243</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07077772373973502</v>
+        <v>0.08097344825359114</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1127161141697959</v>
+        <v>0.1127109552545659</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2561473886281353</v>
+        <v>0.2456834891491823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3039774610925391</v>
+        <v>0.3196744084259006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1863419234792432</v>
+        <v>0.1882778410571266</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3516007768700898</v>
+        <v>0.3377960713131785</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4275327942824911</v>
+        <v>0.4565721902873432</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3620842655422222</v>
+        <v>0.392443174605102</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2462147046432601</v>
+        <v>0.2445177360185892</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2502338047738165</v>
+        <v>0.225014519772167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2647000197996901</v>
+        <v>0.2617357041993825</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2520191666573833</v>
+        <v>0.2635651638404878</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1905608354110075</v>
+        <v>0.1935373898834492</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2497040470284257</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3012484680509345</v>
+        <v>0.3012484680509344</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1410716325653676</v>
+        <v>0.141748541531254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1869717154916259</v>
+        <v>0.1867799442634258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.274401881253278</v>
+        <v>0.278899795226053</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2739585075457986</v>
+        <v>0.2723475846446903</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3494795204893784</v>
+        <v>0.3499626441693626</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.237145937520864</v>
+        <v>0.2327577336656321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2268632698215184</v>
+        <v>0.2240955988531784</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2842194954591441</v>
+        <v>0.284749057832931</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1998950556675487</v>
+        <v>0.2036233353610985</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2381748586565061</v>
+        <v>0.2373931366096513</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3465641877158682</v>
+        <v>0.3485548428974919</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3497162134197795</v>
+        <v>0.3483204979275475</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3955127563126005</v>
+        <v>0.3957501687722455</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2871306215331226</v>
+        <v>0.2845446649234932</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2748854413219001</v>
+        <v>0.273556558857354</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3186612382344681</v>
+        <v>0.319677032829728</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43540</v>
+        <v>43855</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>72124</v>
+        <v>72702</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>62744</v>
+        <v>62443</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>74495</v>
+        <v>72659</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>108216</v>
+        <v>107491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>186138</v>
+        <v>187749</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>162908</v>
+        <v>166865</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>234211</v>
+        <v>234632</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>158759</v>
+        <v>159354</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>270853</v>
+        <v>270778</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>235870</v>
+        <v>238929</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>317239</v>
+        <v>316883</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70632</v>
+        <v>70716</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>109048</v>
+        <v>108422</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>91243</v>
+        <v>90910</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>98342</v>
+        <v>98676</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>147585</v>
+        <v>147772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>234435</v>
+        <v>234293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>211665</v>
+        <v>216917</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>266752</v>
+        <v>267469</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>209958</v>
+        <v>207239</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332772</v>
+        <v>330990</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>294582</v>
+        <v>295992</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>360046</v>
+        <v>361072</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3482</v>
+        <v>3416</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7816</v>
+        <v>7076</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11253</v>
+        <v>11773</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39581</v>
+        <v>38351</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3424</v>
+        <v>3312</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9954</v>
+        <v>10107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32418</v>
+        <v>32379</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56123</v>
+        <v>56230</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8659</v>
+        <v>8597</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19899</v>
+        <v>20235</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49766</v>
+        <v>48418</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>100210</v>
+        <v>100507</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13913</v>
+        <v>12883</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22439</v>
+        <v>21388</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27248</v>
+        <v>27933</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60704</v>
+        <v>59143</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14703</v>
+        <v>14890</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25107</v>
+        <v>25402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>58922</v>
+        <v>59857</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77865</v>
+        <v>76892</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23419</v>
+        <v>23341</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41321</v>
+        <v>41504</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>79231</v>
+        <v>80064</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>131439</v>
+        <v>129525</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1853</v>
+        <v>2342</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9760</v>
+        <v>9483</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1193</v>
+        <v>1248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2054</v>
+        <v>2336</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9921</v>
+        <v>10145</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3814</v>
+        <v>3521</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2346</v>
+        <v>2892</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5358</v>
+        <v>6130</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22739</v>
+        <v>22738</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10552</v>
+        <v>10121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12776</v>
+        <v>13436</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22153</v>
+        <v>22383</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9451</v>
+        <v>9080</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9511</v>
+        <v>10157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12193</v>
+        <v>13215</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20400</v>
+        <v>20260</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17035</v>
+        <v>15318</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12923</v>
+        <v>12778</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19079</v>
+        <v>19953</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>38443</v>
+        <v>39043</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>83015</v>
+        <v>83414</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>132870</v>
+        <v>132734</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>203020</v>
+        <v>206348</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>212730</v>
+        <v>211479</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>312111</v>
+        <v>312543</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>308172</v>
+        <v>302469</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>309661</v>
+        <v>305883</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>455807</v>
+        <v>456657</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117631</v>
+        <v>119825</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169257</v>
+        <v>168702</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>256411</v>
+        <v>257884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>271556</v>
+        <v>270473</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>353222</v>
+        <v>353434</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>373127</v>
+        <v>369766</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>375210</v>
+        <v>373396</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>511042</v>
+        <v>512671</v>
       </c>
     </row>
     <row r="20">
